--- a/va_facility_data_2025-02-20/Kent County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kent%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kent County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kent%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4b891a541b544cdbb8820cf2ddc487c1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9137e41e360c4a4c895df325d4b08b90"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdee961fa8f504f3e9635ed9bac612d3c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd79dda772c7d47769ce2b6bed14582a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R564ac255f28d489f9101f5ad22e102ae"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7c63a3705f114a1caddab81e7ae57b3f"/>
   </x:sheets>
 </x:workbook>
 </file>
